--- a/artfynd/A 35184-2023.xlsx
+++ b/artfynd/A 35184-2023.xlsx
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>358653.3928843013</v>
+        <v>358653</v>
       </c>
       <c r="R2" t="n">
-        <v>6874558.291969577</v>
+        <v>6874558</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -757,19 +757,9 @@
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-01</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -845,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>358671.3741330409</v>
+        <v>358671</v>
       </c>
       <c r="R3" t="n">
-        <v>6874548.601139568</v>
+        <v>6874549</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -878,19 +868,9 @@
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-01</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">

--- a/artfynd/A 35184-2023.xlsx
+++ b/artfynd/A 35184-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112182610</v>
+        <v>112182656</v>
       </c>
       <c r="B2" t="n">
-        <v>77267</v>
+        <v>77039</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6446</v>
+        <v>6437</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>358653</v>
+        <v>358671</v>
       </c>
       <c r="R2" t="n">
-        <v>6874558</v>
+        <v>6874549</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112182656</v>
+        <v>112182610</v>
       </c>
       <c r="B3" t="n">
-        <v>76918</v>
+        <v>77388</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6437</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>358671</v>
+        <v>358653</v>
       </c>
       <c r="R3" t="n">
-        <v>6874549</v>
+        <v>6874558</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>

--- a/artfynd/A 35184-2023.xlsx
+++ b/artfynd/A 35184-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112182656</v>
       </c>
       <c r="B2" t="n">
-        <v>77039</v>
+        <v>77053</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>112182610</v>
       </c>
       <c r="B3" t="n">
-        <v>77388</v>
+        <v>77402</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/artfynd/A 35184-2023.xlsx
+++ b/artfynd/A 35184-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112182656</v>
+        <v>112182610</v>
       </c>
       <c r="B2" t="n">
-        <v>77053</v>
+        <v>77402</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6437</v>
+        <v>6446</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>358671</v>
+        <v>358653</v>
       </c>
       <c r="R2" t="n">
-        <v>6874549</v>
+        <v>6874558</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112182610</v>
+        <v>112182656</v>
       </c>
       <c r="B3" t="n">
-        <v>77402</v>
+        <v>77053</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>6437</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>358653</v>
+        <v>358671</v>
       </c>
       <c r="R3" t="n">
-        <v>6874558</v>
+        <v>6874549</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
